--- a/DS/02_Excel/Jan28.xlsx
+++ b/DS/02_Excel/Jan28.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD15BDDD-B784-45B7-B4F0-8647D8AE3BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9134A3-56EB-4AD3-A064-24AA9034741E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="127">
   <si>
     <t>City</t>
   </si>
@@ -394,6 +394,21 @@
   </si>
   <si>
     <t>Venue</t>
+  </si>
+  <si>
+    <t>Enter Match ID:</t>
+  </si>
+  <si>
+    <t>Row No:</t>
+  </si>
+  <si>
+    <t>City of that Match:</t>
+  </si>
+  <si>
+    <t>Match ID:</t>
+  </si>
+  <si>
+    <t>City:</t>
   </si>
 </sst>
 </file>
@@ -420,15 +435,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -436,15 +457,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,18 +938,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A5B976-BEA4-47BF-A459-61DB5301430C}">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -969,7 +1003,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>335982</v>
       </c>
@@ -1021,8 +1055,11 @@
       <c r="Q2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>335983</v>
       </c>
@@ -1074,8 +1111,11 @@
       <c r="Q3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S3" s="4">
+        <v>335998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>335984</v>
       </c>
@@ -1127,8 +1167,11 @@
       <c r="Q4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>335985</v>
       </c>
@@ -1180,8 +1223,12 @@
       <c r="Q5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S5" s="4">
+        <f>MATCH(S3, A1:A29, 0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>335986</v>
       </c>
@@ -1233,8 +1280,11 @@
       <c r="Q6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>335987</v>
       </c>
@@ -1286,8 +1336,12 @@
       <c r="Q7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S7" s="4" t="str">
+        <f>INDEX(B1:B29, S5)</f>
+        <v>Delhi</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>335988</v>
       </c>
@@ -1340,7 +1394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>335989</v>
       </c>
@@ -1393,7 +1447,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>335990</v>
       </c>
@@ -1446,7 +1500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>335991</v>
       </c>
@@ -1499,7 +1553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>335992</v>
       </c>
@@ -1551,8 +1605,12 @@
       <c r="Q12" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>335993</v>
       </c>
@@ -1604,8 +1662,14 @@
       <c r="Q13" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>335994</v>
       </c>
@@ -1657,8 +1721,14 @@
       <c r="Q14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>335995</v>
       </c>
@@ -1710,8 +1780,12 @@
       <c r="Q15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>335996</v>
       </c>
@@ -2462,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A10C13B-083B-4352-8699-7F701746C7AE}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
